--- a/output/DIVIDEND/rebalance/rebalance_20250930.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20250930.xlsx
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01791129447014633</v>
+        <v>0.01784983861663824</v>
       </c>
       <c r="C2" t="n">
         <v>0.02323565111843246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005324356648286135</v>
+        <v>0.005385812501794224</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5988,13 +5988,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0147388353725379</v>
+        <v>0.01527570103548975</v>
       </c>
       <c r="C6" t="n">
         <v>0.02267416416887546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00793532879633756</v>
+        <v>0.007398463133385708</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6009,13 +6009,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02151828435657148</v>
+        <v>0.02144476888879969</v>
       </c>
       <c r="C7" t="n">
         <v>0.02262462120273808</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001106336846166601</v>
+        <v>0.001179852313938391</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02179854258155401</v>
+        <v>0.02172528925604532</v>
       </c>
       <c r="C10" t="n">
         <v>0.02216222018545584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003636776039018241</v>
+        <v>0.0004369309294105159</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6093,13 +6093,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02107485309504295</v>
+        <v>0.02100325453972287</v>
       </c>
       <c r="C11" t="n">
         <v>0.02214570586341004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001070852768367096</v>
+        <v>0.001142451323687173</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6114,13 +6114,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02170782331991854</v>
+        <v>0.02163298683073341</v>
       </c>
       <c r="C12" t="n">
         <v>0.02193101967681472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002231963568961812</v>
+        <v>0.0002980328460813128</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02510263177978125</v>
+        <v>0.02501592215325256</v>
       </c>
       <c r="C15" t="n">
         <v>0.02163376187999042</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.003468869899790832</v>
+        <v>-0.003382160273262141</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02097830908295653</v>
+        <v>0.02090675062221562</v>
       </c>
       <c r="C16" t="n">
         <v>0.02133650408316613</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003581950002095984</v>
+        <v>0.0004297534609505049</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6219,13 +6219,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02758948821766612</v>
+        <v>0.02749444385220995</v>
       </c>
       <c r="C17" t="n">
         <v>0.0211383322186166</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00645115599904952</v>
+        <v>-0.006356111633593349</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01807585614177229</v>
+        <v>0.01801465458273755</v>
       </c>
       <c r="C18" t="n">
         <v>0.02105576060838762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002979904466615339</v>
+        <v>0.003041106025650071</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02067874195298353</v>
+        <v>0.02060779626241359</v>
       </c>
       <c r="C20" t="n">
         <v>0.02072547416747174</v>
       </c>
       <c r="D20" t="n">
-        <v>4.673221448820916e-05</v>
+        <v>0.0001176779050581535</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01747732081884077</v>
+        <v>0.01741929244747537</v>
       </c>
       <c r="C21" t="n">
         <v>0.020543816624968</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00306649580612723</v>
+        <v>0.003124524177492639</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02057780120601953</v>
+        <v>0.02050757223303469</v>
       </c>
       <c r="C23" t="n">
         <v>0.02037867340451006</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0001991278015094702</v>
+        <v>-0.0001288988285246227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0205501866277726</v>
+        <v>0.02048168302119193</v>
       </c>
       <c r="C24" t="n">
         <v>0.02032913043837268</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0002210561893999236</v>
+        <v>-0.000152552582819248</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0215978246416376</v>
+        <v>0.02152390429449836</v>
       </c>
       <c r="C27" t="n">
         <v>0.01923092802232736</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.002366896619310239</v>
+        <v>-0.002292976272171</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01902319164902223</v>
+        <v>0.01895863569843202</v>
       </c>
       <c r="C29" t="n">
         <v>0.01907404196289232</v>
       </c>
       <c r="D29" t="n">
-        <v>5.085031387009123e-05</v>
+        <v>0.0001154062644602959</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02539935623402992</v>
+        <v>0.02531500665792929</v>
       </c>
       <c r="C30" t="n">
         <v>0.01905752764084652</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.006341828593183396</v>
+        <v>-0.006257479017082766</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0173191723135071</v>
+        <v>0.01726012163978774</v>
       </c>
       <c r="C32" t="n">
         <v>0.01885935577629699</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001540183462789894</v>
+        <v>0.001599234136509257</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02221799675529621</v>
+        <v>0.02214224762755638</v>
       </c>
       <c r="C33" t="n">
         <v>0.0188428414542512</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.003375155301045013</v>
+        <v>-0.00329940617330518</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01790613876835861</v>
+        <v>0.01784514322106609</v>
       </c>
       <c r="C38" t="n">
         <v>0.0185620979794727</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0006559592111140926</v>
+        <v>0.0007169547584066072</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02018294653229201</v>
+        <v>0.02011330252340805</v>
       </c>
       <c r="C43" t="n">
         <v>0.01806666831809887</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002116278214193135</v>
+        <v>-0.002046634205309181</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02015541046969834</v>
+        <v>0.02008363612905725</v>
       </c>
       <c r="C44" t="n">
         <v>0.01803363967400728</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002121770795691057</v>
+        <v>-0.002049996455049968</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6807,17 +6807,17 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01756240115890892</v>
+        <v>0.01849722404651812</v>
       </c>
       <c r="C45" t="n">
         <v>0.01790152509764093</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0003391239387320159</v>
+        <v>-0.0005956989488771838</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02176765920668325</v>
+        <v>0.02169235701030543</v>
       </c>
       <c r="C46" t="n">
         <v>0.01786849645354934</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003899162753133907</v>
+        <v>-0.003823860556756084</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01778426683118825</v>
+        <v>0.01772313256960857</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01778426683118825</v>
+        <v>-0.01772313256960857</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.03597815189414049</v>
+        <v>0.03583948638510008</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03597815189414049</v>
+        <v>-0.03583948638510008</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01683219951058137</v>
+        <v>0.01677353041930413</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01683219951058137</v>
+        <v>-0.01677353041930413</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01880405747999888</v>
+        <v>0.01873901180910504</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01880405747999888</v>
+        <v>-0.01873901180910504</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0175666883350014</v>
+        <v>0.01750676413327666</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0175666883350014</v>
+        <v>-0.01750676413327666</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01929538652618212</v>
+        <v>0.01922935110495971</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01929538652618212</v>
+        <v>-0.01922935110495971</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01867683130980565</v>
+        <v>0.01861301933900386</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01867683130980565</v>
+        <v>-0.01861301933900386</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01909154862567831</v>
+        <v>0.01902720595723001</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01909154862567831</v>
+        <v>-0.01902720595723001</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01680229207865497</v>
+        <v>0.01674722313883489</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01680229207865497</v>
+        <v>-0.01674722313883489</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01877336446905019</v>
+        <v>0.0187118734383166</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01877336446905019</v>
+        <v>-0.0187118734383166</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01708571495894592</v>
+        <v>0.01702727160162988</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01708571495894592</v>
+        <v>-0.01702727160162988</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01905452878606363</v>
+        <v>0.01898825424456638</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01905452878606363</v>
+        <v>-0.01898825424456638</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02142193396233847</v>
+        <v>0.02134746327699659</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02142193396233847</v>
+        <v>-0.02134746327699659</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02148160251962133</v>
+        <v>0.02140693595897223</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02148160251962133</v>
+        <v>-0.02140693595897223</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02302992431913183</v>
+        <v>0.02295006647708069</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02302992431913183</v>
+        <v>-0.02295006647708069</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01874514979096938</v>
+        <v>0.01868154904847694</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01874514979096938</v>
+        <v>-0.01868154904847694</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0201130089786918</v>
+        <v>0.02004432433527003</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0201130089786918</v>
+        <v>-0.02004432433527003</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01761561510377873</v>
+        <v>0.01755406903289361</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01761561510377873</v>
+        <v>-0.01755406903289361</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02037353342783088</v>
+        <v>0.02030052751789779</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02037353342783088</v>
+        <v>-0.02030052751789779</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01848592179800867</v>
+        <v>0.01842246713697094</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01848592179800867</v>
+        <v>-0.01842246713697094</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01763864935512033</v>
+        <v>0.01757882823876705</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01763864935512033</v>
+        <v>-0.01757882823876705</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01775735145998748</v>
+        <v>0.01852268123951781</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01775735145998748</v>
+        <v>-0.01852268123951781</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0211303880196673</v>
+        <v>0.02105888341245406</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.0211303880196673</v>
+        <v>-0.02105888341245406</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01830290846994531</v>
+        <v>0.01925662280725355</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01830290846994531</v>
+        <v>-0.01925662280725355</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01647429088424477</v>
+        <v>0.01642938047459569</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01647429088424477</v>
+        <v>-0.01642938047459569</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01877262435237462</v>
+        <v>0.01870854371139797</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01877262435237462</v>
+        <v>-0.01870854371139797</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>

--- a/output/DIVIDEND/rebalance/rebalance_20250930.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53.76%</t>
+          <t>53.84%</t>
         </is>
       </c>
     </row>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01784983861663824</v>
+        <v>0.017973051625217</v>
       </c>
       <c r="C2" t="n">
         <v>0.02323565111843246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005385812501794224</v>
+        <v>0.005262599493215461</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5988,13 +5988,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01527570103548975</v>
+        <v>0.01419900502681604</v>
       </c>
       <c r="C6" t="n">
         <v>0.02267416416887546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007398463133385708</v>
+        <v>0.008475159142059416</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6009,13 +6009,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02144476888879969</v>
+        <v>0.02159247821375353</v>
       </c>
       <c r="C7" t="n">
         <v>0.02262462120273808</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001179852313938391</v>
+        <v>0.001032142988984543</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02172528925604532</v>
+        <v>0.02187370275363248</v>
       </c>
       <c r="C10" t="n">
         <v>0.02216222018545584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0004369309294105159</v>
+        <v>0.0002885174318233603</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6093,13 +6093,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02100325453972287</v>
+        <v>0.02114751802570174</v>
       </c>
       <c r="C11" t="n">
         <v>0.02214570586341004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001142451323687173</v>
+        <v>0.0009981878377083066</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6114,13 +6114,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02163298683073341</v>
+        <v>0.02178267069698833</v>
       </c>
       <c r="C12" t="n">
         <v>0.02193101967681472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002980328460813128</v>
+        <v>0.0001483489798263862</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02501592215325256</v>
+        <v>0.02518918426911083</v>
       </c>
       <c r="C15" t="n">
         <v>0.02163376187999042</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.003382160273262141</v>
+        <v>-0.003555422389120409</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02090675062221562</v>
+        <v>0.02105064113518849</v>
       </c>
       <c r="C16" t="n">
         <v>0.02133650408316613</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0004297534609505049</v>
+        <v>0.0002858629479776352</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6219,13 +6219,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02749444385220995</v>
+        <v>0.02768461525078028</v>
       </c>
       <c r="C17" t="n">
         <v>0.0211383322186166</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.006356111633593349</v>
+        <v>-0.006546283032163685</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01801465458273755</v>
+        <v>0.01813818069640698</v>
       </c>
       <c r="C18" t="n">
         <v>0.02105576060838762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003041106025650071</v>
+        <v>0.002917579911980644</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6282,17 +6282,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02060779626241359</v>
+        <v>0.02075004111428008</v>
       </c>
       <c r="C20" t="n">
         <v>0.02072547416747174</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001176779050581535</v>
+        <v>-2.45669468083437e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01741929244747537</v>
+        <v>0.01753758165670641</v>
       </c>
       <c r="C21" t="n">
         <v>0.020543816624968</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003124524177492639</v>
+        <v>0.003006234968261592</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02050757223303469</v>
+        <v>0.02064875232919001</v>
       </c>
       <c r="C23" t="n">
         <v>0.02037867340451006</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0001288988285246227</v>
+        <v>-0.0002700789246799506</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02048168302119193</v>
+        <v>0.0206210425374009</v>
       </c>
       <c r="C24" t="n">
         <v>0.02032913043837268</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.000152552582819248</v>
+        <v>-0.000291912099028218</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02152390429449836</v>
+        <v>0.02167229274933388</v>
       </c>
       <c r="C27" t="n">
         <v>0.01923092802232736</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.002292976272171</v>
+        <v>-0.002441364727006515</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6471,17 +6471,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01895863569843202</v>
+        <v>0.01908878256421635</v>
       </c>
       <c r="C29" t="n">
         <v>0.01907404196289232</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001154062644602959</v>
+        <v>-1.474060132403143e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02531500665792929</v>
+        <v>0.02548693181290586</v>
       </c>
       <c r="C30" t="n">
         <v>0.01905752764084652</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.006257479017082766</v>
+        <v>-0.006429404172059339</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01726012163978774</v>
+        <v>0.01737888786405225</v>
       </c>
       <c r="C32" t="n">
         <v>0.01885935577629699</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001599234136509257</v>
+        <v>0.001480467912244741</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02214224762755638</v>
+        <v>0.02229460318222215</v>
       </c>
       <c r="C33" t="n">
         <v>0.0188428414542512</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.00329940617330518</v>
+        <v>-0.003451761727970949</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01784514322106609</v>
+        <v>0.01796787814685398</v>
       </c>
       <c r="C38" t="n">
         <v>0.0185620979794727</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0007169547584066072</v>
+        <v>0.0005942198326187205</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02011330252340805</v>
+        <v>0.02025253621833368</v>
       </c>
       <c r="C43" t="n">
         <v>0.01806666831809887</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.002046634205309181</v>
+        <v>-0.002185867900234811</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02008363612905725</v>
+        <v>0.02022490521291553</v>
       </c>
       <c r="C44" t="n">
         <v>0.01803363967400728</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002049996455049968</v>
+        <v>-0.002191265538908246</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6807,17 +6807,17 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01849722404651812</v>
+        <v>0.01662096186084778</v>
       </c>
       <c r="C45" t="n">
         <v>0.01790152509764093</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0005956989488771838</v>
+        <v>0.001280563236793153</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02169235701030543</v>
+        <v>0.02184271289458911</v>
       </c>
       <c r="C46" t="n">
         <v>0.01786849645354934</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003823860556756084</v>
+        <v>-0.003974216441039773</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01772313256960857</v>
+        <v>0.01784558600196859</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01772313256960857</v>
+        <v>-0.01784558600196859</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.03583948638510008</v>
+        <v>0.03610220257676348</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03583948638510008</v>
+        <v>-0.03610220257676348</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01677353041930413</v>
+        <v>0.01689023600577094</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01677353041930413</v>
+        <v>-0.01689023600577094</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01873901180910504</v>
+        <v>0.01886889283266898</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01873901180910504</v>
+        <v>-0.01886889283266898</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01750676413327666</v>
+        <v>0.01762725730713187</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01750676413327666</v>
+        <v>-0.01762725730713187</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01922935110495971</v>
+        <v>0.0193619159542942</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01922935110495971</v>
+        <v>-0.0193619159542942</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01861301933900386</v>
+        <v>0.01874122799366071</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01861301933900386</v>
+        <v>-0.01874122799366071</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01902720595723001</v>
+        <v>0.01915737523195628</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01902720595723001</v>
+        <v>-0.01915737523195628</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01674722313883489</v>
+        <v>0.01686022545466942</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01674722313883489</v>
+        <v>-0.01686022545466942</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0187118734383166</v>
+        <v>0.01883809399391206</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0187118734383166</v>
+        <v>-0.01883809399391206</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01702727160162988</v>
+        <v>0.01714462556141363</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01702727160162988</v>
+        <v>-0.01714462556141363</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01898825424456638</v>
+        <v>0.01912022774997721</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01898825424456638</v>
+        <v>-0.01912022774997721</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02134746327699659</v>
+        <v>0.02149579560867737</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02134746327699659</v>
+        <v>-0.02149579560867737</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.02140693595897223</v>
+        <v>0.02155566989985351</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.02140693595897223</v>
+        <v>-0.02155566989985351</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02295006647708069</v>
+        <v>0.02310933022749947</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02295006647708069</v>
+        <v>-0.02310933022749947</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01868154904847694</v>
+        <v>0.01880978203317797</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01868154904847694</v>
+        <v>-0.01880978203317797</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02004432433527003</v>
+        <v>0.02018235752390752</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02004432433527003</v>
+        <v>-0.02018235752390752</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01755406903289361</v>
+        <v>0.01767635277270837</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01755406903289361</v>
+        <v>-0.01767635277270837</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02030052751789779</v>
+        <v>0.02044378024697269</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02030052751789779</v>
+        <v>-0.02044378024697269</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01842246713697094</v>
+        <v>0.01854966023640055</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01842246713697094</v>
+        <v>-0.01854966023640055</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01757882823876705</v>
+        <v>0.01769946644487769</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01757882823876705</v>
+        <v>-0.01769946644487769</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01852268123951781</v>
+        <v>0.01698685921659053</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01852268123951781</v>
+        <v>-0.01698685921659053</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02105888341245406</v>
+        <v>0.02120324443168202</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02105888341245406</v>
+        <v>-0.02120324443168202</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01925662280725355</v>
+        <v>0.01734243220042761</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01925662280725355</v>
+        <v>-0.01734243220042761</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01642938047459569</v>
+        <v>0.01653109333023847</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01642938047459569</v>
+        <v>-0.01653109333023847</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01870854371139797</v>
+        <v>0.01883735132535501</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01870854371139797</v>
+        <v>-0.01883735132535501</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
